--- a/java/tool.xlsx
+++ b/java/tool.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="idea快捷键" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>查看模板</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>&lt;%--   000  --%&gt;</t>
+  </si>
+  <si>
+    <t>生成构造器或get set或其他</t>
+  </si>
+  <si>
+    <t>鼠标右击---Generate---Constructor---选无参和有参</t>
   </si>
   <si>
     <t>java的开发工具</t>
@@ -309,17 +315,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +335,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -344,6 +357,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -353,73 +450,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -435,37 +465,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -494,13 +493,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,25 +571,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,31 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,91 +667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,6 +692,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,44 +728,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,173 +766,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1298,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1331,11 +1327,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1355,11 +1351,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A9" s="5" t="s">
+    <row r="9" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
@@ -1385,11 +1381,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="30" customHeight="1" spans="1:2">
-      <c r="A14" s="5" t="s">
+    <row r="14" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
@@ -1469,6 +1465,14 @@
       </c>
       <c r="B24" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1491,7 @@
   <sheetPr/>
   <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1500,175 +1504,175 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1699,7 @@
   <sheetPr/>
   <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1709,26 +1713,26 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/java/tool.xlsx
+++ b/java/tool.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>查看模板</t>
   </si>
@@ -48,6 +48,12 @@
     <t>for循环</t>
   </si>
   <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>main方法</t>
+  </si>
+  <si>
     <t>自动补全</t>
   </si>
   <si>
@@ -136,6 +142,12 @@
   </si>
   <si>
     <t>鼠标右击---Generate---Constructor---选无参和有参</t>
+  </si>
+  <si>
+    <t>找底层自动配置类</t>
+  </si>
+  <si>
+    <t>双击shift     输入WebMvcAutoConfiguration</t>
   </si>
   <si>
     <t>java的开发工具</t>
@@ -307,16 +319,22 @@
   <si>
     <t>File》Project Structure》Modules》Dependencies》Module SDK》下拉选择JDK的java版本</t>
   </si>
+  <si>
+    <t>springboot版本太高，缺少swagger运行所需要的环境</t>
+  </si>
+  <si>
+    <t>Failed to start bean 'documentationPluginsBootstrapper'; nested exception is java.lang.NullPointerException</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -336,7 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +362,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,36 +412,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,71 +482,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,13 +511,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +583,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,43 +643,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,37 +655,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,37 +679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,25 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,8 +708,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,43 +744,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,16 +772,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,16 +822,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,115 +840,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1351,128 +1369,144 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="9" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="30" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1504,175 +1538,175 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1697,42 +1731,49 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="50.7777777777778" style="1" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.777777777778" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="2" max="2" width="120.777777777778" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="2:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
